--- a/Resources/1998/Basic_Percentile_1998.xlsx
+++ b/Resources/1998/Basic_Percentile_1998.xlsx
@@ -1378,19 +1378,19 @@
     <t>Chris Webber</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Antoine Walker</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Tom Gugliotta</t>
@@ -1399,16 +1399,16 @@
     <t>Shawn Kemp</t>
   </si>
   <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Doug Christie</t>
   </si>
   <si>
-    <t>Michael Jordan*</t>
+    <t>Michael Jordan</t>
   </si>
   <si>
     <t>Michael Finley</t>
@@ -1417,7 +1417,7 @@
     <t>Donyell Marshall</t>
   </si>
   <si>
-    <t>Arvydas Sabonis*</t>
+    <t>Arvydas Sabonis</t>
   </si>
   <si>
     <t>Shareef Abdur-Rahim</t>
@@ -1453,7 +1453,7 @@
     <t>Juwan Howard</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Mookie Blaylock</t>
@@ -1462,7 +1462,7 @@
     <t>Kendall Gill</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Latrell Sprewell</t>
@@ -1480,10 +1480,10 @@
     <t>Rasheed Wallace</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
   </si>
   <si>
     <t>Clifford Robinson</t>
@@ -1534,7 +1534,7 @@
     <t>Steve Smith</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Toni Kukoc</t>
@@ -1543,10 +1543,10 @@
     <t>David Wesley</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
-  </si>
-  <si>
-    <t>Ray Allen*</t>
+    <t>Patrick Ewing</t>
+  </si>
+  <si>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Danny Manning</t>
@@ -1591,7 +1591,7 @@
     <t>Walter McCarty</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Anthony Mason</t>
@@ -1627,7 +1627,7 @@
     <t>Cedric Henderson</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Jamal Mashburn</t>
@@ -1648,7 +1648,7 @@
     <t>Ervin Johnson</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Anthony Peeler</t>
@@ -1675,7 +1675,7 @@
     <t>P.J. Brown</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Brent Barry</t>
@@ -1687,7 +1687,7 @@
     <t>Bobby Phills</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Theo Ratliff</t>
@@ -1741,7 +1741,7 @@
     <t>Chris Gatling</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Rex Chapman</t>
@@ -1831,7 +1831,7 @@
     <t>Bruce Bowen</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Dennis Scott</t>
@@ -1885,7 +1885,7 @@
     <t>Cherokee Parks</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Tracy Murray</t>
@@ -2011,7 +2011,7 @@
     <t>Adam Keefe</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Derek Fisher</t>
@@ -2080,7 +2080,7 @@
     <t>Terry Davis</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Rodrick Rhodes</t>
